--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -83,6 +86,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -333,6 +339,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -427,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -439,6 +448,7 @@
     <col min="4" max="4" width="45.9921875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="30.4921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -460,165 +470,192 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -640,1765 +677,2032 @@
       <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -347,37 +347,37 @@
     <t>Dettagli evento</t>
   </si>
   <si>
+    <t>Comprensione coniuge1</t>
+  </si>
+  <si>
+    <t>evento.scioglimentoUnioneCivile</t>
+  </si>
+  <si>
+    <t>comprensioneConiuge1</t>
+  </si>
+  <si>
+    <t>Comprensione coniuge2</t>
+  </si>
+  <si>
+    <t>comprensioneConiuge2</t>
+  </si>
+  <si>
+    <t>Motivo impedimento scrittura coniuge 1</t>
+  </si>
+  <si>
+    <t>motivoImpedimentoScritturaConiuge1</t>
+  </si>
+  <si>
+    <t>Motivo impedimento scrittura coniuge 2</t>
+  </si>
+  <si>
+    <t>motivoImpedimentoScritturaConiuge2</t>
+  </si>
+  <si>
     <t>Presenza interprete</t>
   </si>
   <si>
     <t>ausilioInterprete</t>
-  </si>
-  <si>
-    <t>Comprensione coniuge1</t>
-  </si>
-  <si>
-    <t>evento.scioglimentoUnioneCivile</t>
-  </si>
-  <si>
-    <t>comprensioneConiuge1</t>
-  </si>
-  <si>
-    <t>Comprensione coniuge2</t>
-  </si>
-  <si>
-    <t>comprensioneConiuge2</t>
-  </si>
-  <si>
-    <t>Motivo impedimento scrittura coniuge 1</t>
-  </si>
-  <si>
-    <t>motivoImpedimentoScritturaConiuge1</t>
-  </si>
-  <si>
-    <t>Motivo impedimento scrittura coniuge 2</t>
-  </si>
-  <si>
-    <t>motivoImpedimentoScritturaConiuge2</t>
   </si>
 </sst>
 </file>
@@ -2601,10 +2601,10 @@
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2618,13 +2618,13 @@
         <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>115</v>
@@ -2644,10 +2644,10 @@
         <v>116</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>117</v>
@@ -2670,7 +2670,7 @@
         <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>119</v>
@@ -2690,10 +2690,10 @@
         <v>120</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>121</v>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,46 +32,49 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Estratto dell'atto di unione civile</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>121-decies</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Estratto dell'atto di unione civile</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>121-decies</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -678,2031 +681,2031 @@
         <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
@@ -344,7 +344,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -451,7 +451,7 @@
     <col min="4" max="4" width="45.9921875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="30.4921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="29.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -185,6 +185,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -317,22 +323,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -439,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1037,7 +1043,7 @@
         <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>37</v>
@@ -1046,7 +1052,7 @@
         <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>25</v>
@@ -1129,7 +1135,7 @@
         <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>37</v>
@@ -1161,7 +1167,7 @@
         <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>25</v>
@@ -1184,7 +1190,7 @@
         <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>25</v>
@@ -1207,7 +1213,7 @@
         <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>25</v>
@@ -1244,7 +1250,7 @@
         <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>37</v>
@@ -1253,7 +1259,7 @@
         <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>25</v>
@@ -1307,22 +1313,22 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>25</v>
@@ -1330,22 +1336,22 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>25</v>
@@ -1353,22 +1359,22 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>25</v>
@@ -1376,22 +1382,22 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>25</v>
@@ -1399,19 +1405,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1422,19 +1428,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1445,19 +1451,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1468,22 +1474,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>25</v>
@@ -1491,22 +1497,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>25</v>
@@ -1514,22 +1520,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>25</v>
@@ -1537,22 +1543,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>25</v>
@@ -1560,22 +1566,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>25</v>
@@ -1583,19 +1589,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1606,19 +1612,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1629,19 +1635,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1652,22 +1658,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>25</v>
@@ -1675,19 +1681,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1698,19 +1704,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>12</v>
@@ -1721,22 +1727,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>25</v>
@@ -1744,22 +1750,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>25</v>
@@ -1767,22 +1773,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>25</v>
@@ -1790,19 +1796,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1816,16 +1822,16 @@
         <v>83</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1839,16 +1845,16 @@
         <v>83</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1859,19 +1865,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1882,19 +1888,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1905,19 +1911,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1928,19 +1934,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1951,19 +1957,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1974,19 +1980,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1997,19 +2003,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2020,19 +2026,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2043,22 +2049,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>25</v>
@@ -2066,19 +2072,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>12</v>
@@ -2089,594 +2095,594 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2687,24 +2693,93 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="C100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
+      <c r="E101" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -350,7 +350,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -457,7 +460,7 @@
     <col min="4" max="4" width="45.9921875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="29.109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2650,7 +2653,7 @@
         <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2670,19 +2673,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2693,19 +2696,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2716,19 +2719,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2739,19 +2742,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2762,10 +2765,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2774,7 +2777,7 @@
         <v>23</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -351,9 +351,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2653,7 +2650,7 @@
         <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2673,19 +2670,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2696,19 +2693,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2719,19 +2716,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2742,19 +2739,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2765,10 +2762,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2777,7 +2774,7 @@
         <v>23</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2650,7 +2653,7 @@
         <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2670,19 +2673,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2693,19 +2696,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2716,19 +2719,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2739,19 +2742,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2762,10 +2765,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2774,7 +2777,7 @@
         <v>23</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -261,6 +261,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Unito civilmente 2</t>
@@ -448,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1339,22 +1363,22 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>25</v>
@@ -1362,22 +1386,22 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>25</v>
@@ -1385,22 +1409,22 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>25</v>
@@ -1408,22 +1432,22 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>25</v>
@@ -1431,22 +1455,22 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>25</v>
@@ -1454,19 +1478,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1477,22 +1501,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>25</v>
@@ -1500,22 +1524,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>25</v>
@@ -1523,19 +1547,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1546,22 +1570,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>25</v>
@@ -1569,22 +1593,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>25</v>
@@ -1592,22 +1616,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>25</v>
@@ -1615,19 +1639,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1638,22 +1662,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>25</v>
@@ -1661,22 +1685,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>25</v>
@@ -1684,19 +1708,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1707,22 +1731,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>25</v>
@@ -1730,19 +1754,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1753,22 +1777,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>25</v>
@@ -1776,22 +1800,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>25</v>
@@ -1799,22 +1823,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>25</v>
@@ -1822,19 +1846,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1845,22 +1869,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>25</v>
@@ -1868,22 +1892,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>25</v>
@@ -1891,19 +1915,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1914,19 +1938,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1937,19 +1961,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1960,19 +1984,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1983,22 +2007,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>25</v>
@@ -2006,19 +2030,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2029,22 +2053,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>25</v>
@@ -2052,19 +2076,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2075,22 +2099,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>25</v>
@@ -2098,22 +2122,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>25</v>
@@ -2121,19 +2145,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2144,645 +2168,829 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E98" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G98" s="2" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="E105" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
+      <c r="E109" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
@@ -886,7 +886,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>37</v>
@@ -895,7 +895,7 @@
         <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>25</v>
@@ -1507,7 +1507,7 @@
         <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>92</v>
@@ -1516,7 +1516,7 @@
         <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>25</v>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -137,6 +137,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -191,13 +197,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -472,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -886,7 +892,7 @@
         <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>37</v>
@@ -978,7 +984,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>37</v>
@@ -1010,7 +1016,7 @@
         <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>25</v>
@@ -1033,7 +1039,7 @@
         <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>25</v>
@@ -1056,7 +1062,7 @@
         <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>25</v>
@@ -1093,7 +1099,7 @@
         <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>37</v>
@@ -1102,7 +1108,7 @@
         <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>25</v>
@@ -1185,7 +1191,7 @@
         <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>37</v>
@@ -1217,7 +1223,7 @@
         <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>25</v>
@@ -1240,7 +1246,7 @@
         <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>25</v>
@@ -1263,7 +1269,7 @@
         <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>25</v>
@@ -1300,7 +1306,7 @@
         <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>37</v>
@@ -1309,7 +1315,7 @@
         <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>25</v>
@@ -1369,7 +1375,7 @@
         <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>37</v>
@@ -1401,7 +1407,7 @@
         <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>25</v>
@@ -1424,7 +1430,7 @@
         <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>25</v>
@@ -1447,7 +1453,7 @@
         <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>25</v>
@@ -1455,19 +1461,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>12</v>
@@ -1478,22 +1484,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>25</v>
@@ -1501,19 +1507,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1524,19 +1530,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1547,19 +1553,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1570,19 +1576,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1593,19 +1599,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1616,22 +1622,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>25</v>
@@ -1639,19 +1645,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1662,19 +1668,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>12</v>
@@ -1685,22 +1691,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>25</v>
@@ -1708,22 +1714,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>25</v>
@@ -1731,22 +1737,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>25</v>
@@ -1754,19 +1760,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1777,19 +1783,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1800,19 +1806,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1823,22 +1829,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>25</v>
@@ -1846,19 +1852,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1869,19 +1875,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>12</v>
@@ -1892,22 +1898,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>25</v>
@@ -1915,22 +1921,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>25</v>
@@ -1938,22 +1944,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>25</v>
@@ -1961,19 +1967,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1984,19 +1990,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2007,22 +2013,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>25</v>
@@ -2030,19 +2036,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2053,19 +2059,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>12</v>
@@ -2079,16 +2085,16 @@
         <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2102,19 +2108,19 @@
         <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>25</v>
@@ -2122,19 +2128,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2145,19 +2151,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2168,19 +2174,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2191,19 +2197,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2214,19 +2220,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2237,19 +2243,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2260,19 +2266,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2283,22 +2289,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>25</v>
@@ -2306,22 +2312,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>25</v>
@@ -2329,22 +2335,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>25</v>
@@ -2352,617 +2358,617 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G104" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2973,24 +2979,93 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
+      <c r="C111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
+      <c r="E112" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -478,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1168,7 +1174,7 @@
         <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>37</v>
@@ -1177,7 +1183,7 @@
         <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>25</v>
@@ -1191,7 +1197,7 @@
         <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>37</v>
@@ -1223,7 +1229,7 @@
         <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>25</v>
@@ -1246,7 +1252,7 @@
         <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>25</v>
@@ -1269,7 +1275,7 @@
         <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>25</v>
@@ -1292,7 +1298,7 @@
         <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>25</v>
@@ -1329,7 +1335,7 @@
         <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>37</v>
@@ -1338,7 +1344,7 @@
         <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>25</v>
@@ -1398,7 +1404,7 @@
         <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>37</v>
@@ -1430,7 +1436,7 @@
         <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>25</v>
@@ -1453,7 +1459,7 @@
         <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>25</v>
@@ -1476,7 +1482,7 @@
         <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>25</v>
@@ -1484,19 +1490,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>12</v>
@@ -1507,22 +1513,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>25</v>
@@ -1530,19 +1536,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1553,19 +1559,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1576,19 +1582,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1599,19 +1605,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1622,19 +1628,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1645,19 +1651,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1668,22 +1674,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>25</v>
@@ -1691,22 +1697,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>25</v>
@@ -1714,22 +1720,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>25</v>
@@ -1737,19 +1743,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>12</v>
@@ -1760,22 +1766,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>25</v>
@@ -1783,19 +1789,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1806,19 +1812,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1829,22 +1835,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>25</v>
@@ -1852,19 +1858,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1875,19 +1881,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>12</v>
@@ -1898,19 +1904,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1921,19 +1927,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>12</v>
@@ -1944,22 +1950,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>25</v>
@@ -1967,22 +1973,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>25</v>
@@ -1990,22 +1996,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>25</v>
@@ -2013,19 +2019,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2036,19 +2042,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2059,22 +2065,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>25</v>
@@ -2082,19 +2088,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2105,19 +2111,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>12</v>
@@ -2131,16 +2137,16 @@
         <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2154,19 +2160,19 @@
         <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>25</v>
@@ -2174,19 +2180,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2197,19 +2203,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2220,19 +2226,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2243,19 +2249,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2266,19 +2272,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2289,19 +2295,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2312,19 +2318,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2335,22 +2341,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>25</v>
@@ -2358,22 +2364,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>25</v>
@@ -2381,22 +2387,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>25</v>
@@ -2404,640 +2410,640 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G107" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3048,24 +3054,93 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="C114" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
+      <c r="E115" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="140">
   <si>
     <t>Sezione</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -484,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1206,7 +1212,7 @@
         <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>25</v>
@@ -1229,7 +1235,7 @@
         <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>25</v>
@@ -1252,7 +1258,7 @@
         <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>25</v>
@@ -1275,7 +1281,7 @@
         <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>25</v>
@@ -1298,7 +1304,7 @@
         <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>25</v>
@@ -1321,7 +1327,7 @@
         <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>25</v>
@@ -1358,7 +1364,7 @@
         <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>37</v>
@@ -1367,7 +1373,7 @@
         <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>25</v>
@@ -1427,7 +1433,7 @@
         <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>37</v>
@@ -1459,7 +1465,7 @@
         <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>25</v>
@@ -1482,7 +1488,7 @@
         <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>25</v>
@@ -1505,7 +1511,7 @@
         <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>25</v>
@@ -1513,19 +1519,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C45" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>12</v>
@@ -1536,22 +1542,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>25</v>
@@ -1559,19 +1565,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1582,19 +1588,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1605,19 +1611,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1628,19 +1634,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1651,19 +1657,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1674,19 +1680,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1697,22 +1703,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>25</v>
@@ -1720,22 +1726,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>25</v>
@@ -1743,22 +1749,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>25</v>
@@ -1766,19 +1772,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>12</v>
@@ -1789,22 +1795,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>25</v>
@@ -1812,19 +1818,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1835,22 +1841,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>25</v>
@@ -1858,22 +1864,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>25</v>
@@ -1881,19 +1887,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>12</v>
@@ -1904,19 +1910,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1927,19 +1933,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>12</v>
@@ -1950,19 +1956,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1973,19 +1979,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>12</v>
@@ -1996,22 +2002,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>25</v>
@@ -2019,22 +2025,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>25</v>
@@ -2042,22 +2048,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>25</v>
@@ -2065,19 +2071,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2088,19 +2094,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2111,22 +2117,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>25</v>
@@ -2134,19 +2140,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2157,19 +2163,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>12</v>
@@ -2183,16 +2189,16 @@
         <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2206,19 +2212,19 @@
         <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>25</v>
@@ -2226,19 +2232,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2249,19 +2255,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2272,19 +2278,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2295,19 +2301,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2318,19 +2324,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2341,19 +2347,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2364,19 +2370,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2387,22 +2393,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>25</v>
@@ -2410,22 +2416,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>25</v>
@@ -2433,22 +2439,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>25</v>
@@ -2456,663 +2462,663 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G110" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3123,24 +3129,93 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="C117" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
+      <c r="E118" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="142">
   <si>
     <t>Sezione</t>
   </si>
@@ -375,6 +375,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -490,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2491,7 +2497,7 @@
         <v>121</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>101</v>
@@ -2500,7 +2506,7 @@
         <v>122</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>25</v>
@@ -2508,605 +2514,605 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F88" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>129</v>
@@ -3115,30 +3121,30 @@
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>133</v>
@@ -3152,16 +3158,16 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>135</v>
@@ -3175,7 +3181,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>136</v>
@@ -3184,7 +3190,7 @@
         <v>14</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>137</v>
@@ -3198,16 +3204,16 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>139</v>
@@ -3216,6 +3222,29 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>25</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
@@ -2819,7 +2819,7 @@
         <v>61</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>126</v>
@@ -2842,7 +2842,7 @@
         <v>63</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>126</v>
@@ -2851,7 +2851,7 @@
         <v>64</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>128</v>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -496,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -956,7 +968,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>37</v>
@@ -979,7 +991,7 @@
         <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>37</v>
@@ -988,7 +1000,7 @@
         <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>25</v>
@@ -1025,7 +1037,7 @@
         <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>37</v>
@@ -1048,7 +1060,7 @@
         <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>37</v>
@@ -1057,7 +1069,7 @@
         <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>25</v>
@@ -1126,7 +1138,7 @@
         <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>25</v>
@@ -1140,7 +1152,7 @@
         <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>37</v>
@@ -1149,7 +1161,7 @@
         <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>25</v>
@@ -1163,7 +1175,7 @@
         <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>37</v>
@@ -1172,7 +1184,7 @@
         <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>25</v>
@@ -1186,7 +1198,7 @@
         <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>37</v>
@@ -1195,7 +1207,7 @@
         <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>25</v>
@@ -1209,7 +1221,7 @@
         <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>37</v>
@@ -1218,7 +1230,7 @@
         <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>25</v>
@@ -1241,7 +1253,7 @@
         <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>25</v>
@@ -1379,7 +1391,7 @@
         <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>25</v>
@@ -1393,7 +1405,7 @@
         <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>37</v>
@@ -1402,7 +1414,7 @@
         <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>25</v>
@@ -1416,7 +1428,7 @@
         <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>37</v>
@@ -1425,7 +1437,7 @@
         <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>25</v>
@@ -1462,7 +1474,7 @@
         <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>37</v>
@@ -1485,7 +1497,7 @@
         <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>37</v>
@@ -1494,7 +1506,7 @@
         <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>25</v>
@@ -1548,22 +1560,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C46" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>25</v>
@@ -1571,22 +1583,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>25</v>
@@ -1594,22 +1606,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>25</v>
@@ -1617,19 +1629,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1640,19 +1652,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1663,19 +1675,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1686,19 +1698,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1709,22 +1721,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>25</v>
@@ -1732,22 +1744,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>25</v>
@@ -1755,19 +1767,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1778,22 +1790,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>25</v>
@@ -1801,22 +1813,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>25</v>
@@ -1824,22 +1836,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>25</v>
@@ -1847,19 +1859,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1870,19 +1882,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>12</v>
@@ -1893,19 +1905,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>12</v>
@@ -1916,19 +1928,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1939,22 +1951,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>25</v>
@@ -1962,22 +1974,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>25</v>
@@ -1985,19 +1997,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>12</v>
@@ -2008,19 +2020,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2031,19 +2043,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>12</v>
@@ -2054,22 +2066,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>25</v>
@@ -2077,22 +2089,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>25</v>
@@ -2100,19 +2112,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2123,22 +2135,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>25</v>
@@ -2146,22 +2158,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>25</v>
@@ -2169,22 +2181,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>25</v>
@@ -2192,19 +2204,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2215,22 +2227,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>25</v>
@@ -2238,19 +2250,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2261,22 +2273,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>25</v>
@@ -2284,19 +2296,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2307,22 +2319,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>25</v>
@@ -2330,19 +2342,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2353,19 +2365,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2376,19 +2388,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2399,19 +2411,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2422,19 +2434,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2445,22 +2457,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>25</v>
@@ -2468,22 +2480,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>25</v>
@@ -2491,22 +2503,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>25</v>
@@ -2514,19 +2526,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2537,714 +2549,852 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C91" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="E115" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
+      <c r="E116" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D117" s="2" t="s">
+      <c r="E117" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="E118" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="E119" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
+      <c r="C123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119" s="2" t="s">
+      <c r="E125" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>25</v>
       </c>
     </row>
